--- a/natmiOut/OldD4/LR-pairs_lrc2p/Hgf-Met.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Hgf-Met.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Met</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>7.35518157280339</v>
+        <v>0.07439166666666666</v>
       </c>
       <c r="H2">
-        <v>7.35518157280339</v>
+        <v>0.223175</v>
       </c>
       <c r="I2">
-        <v>0.1631507287346842</v>
+        <v>0.001568113081150489</v>
       </c>
       <c r="J2">
-        <v>0.1631507287346842</v>
+        <v>0.001576581513651203</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.0066635674006</v>
+        <v>2.500998666666666</v>
       </c>
       <c r="N2">
-        <v>1.0066635674006</v>
+        <v>7.502996</v>
       </c>
       <c r="O2">
-        <v>0.05387813629980828</v>
+        <v>0.08179813614512804</v>
       </c>
       <c r="P2">
-        <v>0.05387813629980828</v>
+        <v>0.1013554923061644</v>
       </c>
       <c r="Q2">
-        <v>7.404193320957416</v>
+        <v>0.1860534591444444</v>
       </c>
       <c r="R2">
-        <v>7.404193320957416</v>
+        <v>1.6744811323</v>
       </c>
       <c r="S2">
-        <v>0.008790257200180363</v>
+        <v>0.000128268727302904</v>
       </c>
       <c r="T2">
-        <v>0.008790257200180363</v>
+        <v>0.0001597951954769155</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>7.35518157280339</v>
+        <v>0.07439166666666666</v>
       </c>
       <c r="H3">
-        <v>7.35518157280339</v>
+        <v>0.223175</v>
       </c>
       <c r="I3">
-        <v>0.1631507287346842</v>
+        <v>0.001568113081150489</v>
       </c>
       <c r="J3">
-        <v>0.1631507287346842</v>
+        <v>0.001576581513651203</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.68796431057096</v>
+        <v>0.8623146666666667</v>
       </c>
       <c r="N3">
-        <v>0.68796431057096</v>
+        <v>2.586944</v>
       </c>
       <c r="O3">
-        <v>0.0368208765020254</v>
+        <v>0.02820302683245761</v>
       </c>
       <c r="P3">
-        <v>0.0368208765020254</v>
+        <v>0.03494617119461054</v>
       </c>
       <c r="Q3">
-        <v>5.060102419857913</v>
+        <v>0.06414902524444444</v>
       </c>
       <c r="R3">
-        <v>5.060102419857913</v>
+        <v>0.5773412271999999</v>
       </c>
       <c r="S3">
-        <v>0.006007352833955254</v>
+        <v>4.422553530401503E-05</v>
       </c>
       <c r="T3">
-        <v>0.006007352833955254</v>
+        <v>5.509548747831317E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>7.35518157280339</v>
+        <v>0.07439166666666666</v>
       </c>
       <c r="H4">
-        <v>7.35518157280339</v>
+        <v>0.223175</v>
       </c>
       <c r="I4">
-        <v>0.1631507287346842</v>
+        <v>0.001568113081150489</v>
       </c>
       <c r="J4">
-        <v>0.1631507287346842</v>
+        <v>0.001576581513651203</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.7389011736223</v>
+        <v>4.273522333333333</v>
       </c>
       <c r="N4">
-        <v>1.7389011736223</v>
+        <v>12.820567</v>
       </c>
       <c r="O4">
-        <v>0.09306858565095522</v>
+        <v>0.1397706309484552</v>
       </c>
       <c r="P4">
-        <v>0.09306858565095522</v>
+        <v>0.1731888008375808</v>
       </c>
       <c r="Q4">
-        <v>12.78993386915293</v>
+        <v>0.3179144489138889</v>
       </c>
       <c r="R4">
-        <v>12.78993386915293</v>
+        <v>2.861230040225</v>
       </c>
       <c r="S4">
-        <v>0.01518420757125972</v>
+        <v>0.0002191761547509301</v>
       </c>
       <c r="T4">
-        <v>0.01518420757125972</v>
+        <v>0.0002730462617719499</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>7.35518157280339</v>
+        <v>0.07439166666666666</v>
       </c>
       <c r="H5">
-        <v>7.35518157280339</v>
+        <v>0.223175</v>
       </c>
       <c r="I5">
-        <v>0.1631507287346842</v>
+        <v>0.001568113081150489</v>
       </c>
       <c r="J5">
-        <v>0.1631507287346842</v>
+        <v>0.001576581513651203</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.54175810382474</v>
+        <v>5.239195333333333</v>
       </c>
       <c r="N5">
-        <v>3.54175810382474</v>
+        <v>15.717586</v>
       </c>
       <c r="O5">
-        <v>0.1895601788307117</v>
+        <v>0.1713541150096253</v>
       </c>
       <c r="P5">
-        <v>0.1895601788307117</v>
+        <v>0.2123236726894799</v>
       </c>
       <c r="Q5">
-        <v>26.0502739405788</v>
+        <v>0.3897524728388888</v>
       </c>
       <c r="R5">
-        <v>26.0502739405788</v>
+        <v>3.507772255549999</v>
       </c>
       <c r="S5">
-        <v>0.03092688131530767</v>
+        <v>0.0002687026292555588</v>
       </c>
       <c r="T5">
-        <v>0.03092688131530767</v>
+        <v>0.0003347455772727629</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>7.35518157280339</v>
+        <v>0.07439166666666666</v>
       </c>
       <c r="H6">
-        <v>7.35518157280339</v>
+        <v>0.223175</v>
       </c>
       <c r="I6">
-        <v>0.1631507287346842</v>
+        <v>0.001568113081150489</v>
       </c>
       <c r="J6">
-        <v>0.1631507287346842</v>
+        <v>0.001576581513651203</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.7087957868524</v>
+        <v>17.6992215</v>
       </c>
       <c r="N6">
-        <v>11.7087957868524</v>
+        <v>35.398443</v>
       </c>
       <c r="O6">
-        <v>0.6266722227164995</v>
+        <v>0.5788740910643339</v>
       </c>
       <c r="P6">
-        <v>0.6266722227164995</v>
+        <v>0.4781858629721645</v>
       </c>
       <c r="Q6">
-        <v>86.12031901117474</v>
+        <v>1.3166745860875</v>
       </c>
       <c r="R6">
-        <v>86.12031901117474</v>
+        <v>7.900047516524999</v>
       </c>
       <c r="S6">
-        <v>0.1022420298139812</v>
+        <v>0.0009077400345370815</v>
       </c>
       <c r="T6">
-        <v>0.1022420298139812</v>
+        <v>0.0007538989916512621</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>19.2878504729269</v>
+        <v>7.996669666666667</v>
       </c>
       <c r="H7">
-        <v>19.2878504729269</v>
+        <v>23.990009</v>
       </c>
       <c r="I7">
-        <v>0.4278380933544037</v>
+        <v>0.1685629973331152</v>
       </c>
       <c r="J7">
-        <v>0.4278380933544037</v>
+        <v>0.1694733043653008</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.0066635674006</v>
+        <v>2.500998666666666</v>
       </c>
       <c r="N7">
-        <v>1.0066635674006</v>
+        <v>7.502996</v>
       </c>
       <c r="O7">
-        <v>0.05387813629980828</v>
+        <v>0.08179813614512804</v>
       </c>
       <c r="P7">
-        <v>0.05387813629980828</v>
+        <v>0.1013554923061644</v>
       </c>
       <c r="Q7">
-        <v>19.41637636456594</v>
+        <v>19.99966017410711</v>
       </c>
       <c r="R7">
-        <v>19.41637636456594</v>
+        <v>179.996941566964</v>
       </c>
       <c r="S7">
-        <v>0.02305111910799866</v>
+        <v>0.01378813900488501</v>
       </c>
       <c r="T7">
-        <v>0.02305111910799866</v>
+        <v>0.0171770501966975</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>19.2878504729269</v>
+        <v>7.996669666666667</v>
       </c>
       <c r="H8">
-        <v>19.2878504729269</v>
+        <v>23.990009</v>
       </c>
       <c r="I8">
-        <v>0.4278380933544037</v>
+        <v>0.1685629973331152</v>
       </c>
       <c r="J8">
-        <v>0.4278380933544037</v>
+        <v>0.1694733043653008</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.68796431057096</v>
+        <v>0.8623146666666667</v>
       </c>
       <c r="N8">
-        <v>0.68796431057096</v>
+        <v>2.586944</v>
       </c>
       <c r="O8">
-        <v>0.0368208765020254</v>
+        <v>0.02820302683245761</v>
       </c>
       <c r="P8">
-        <v>0.0368208765020254</v>
+        <v>0.03494617119461054</v>
       </c>
       <c r="Q8">
-        <v>13.26935275300292</v>
+        <v>6.895645538055111</v>
       </c>
       <c r="R8">
-        <v>13.26935275300292</v>
+        <v>62.060809842496</v>
       </c>
       <c r="S8">
-        <v>0.01575337359826452</v>
+        <v>0.004753986736745328</v>
       </c>
       <c r="T8">
-        <v>0.01575337359826452</v>
+        <v>0.005922443107266139</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>19.2878504729269</v>
+        <v>7.996669666666667</v>
       </c>
       <c r="H9">
-        <v>19.2878504729269</v>
+        <v>23.990009</v>
       </c>
       <c r="I9">
-        <v>0.4278380933544037</v>
+        <v>0.1685629973331152</v>
       </c>
       <c r="J9">
-        <v>0.4278380933544037</v>
+        <v>0.1694733043653008</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.7389011736223</v>
+        <v>4.273522333333333</v>
       </c>
       <c r="N9">
-        <v>1.7389011736223</v>
+        <v>12.820567</v>
       </c>
       <c r="O9">
-        <v>0.09306858565095522</v>
+        <v>0.1397706309484552</v>
       </c>
       <c r="P9">
-        <v>0.09306858565095522</v>
+        <v>0.1731888008375808</v>
       </c>
       <c r="Q9">
-        <v>33.53966582402401</v>
+        <v>34.17394641278922</v>
       </c>
       <c r="R9">
-        <v>33.53966582402401</v>
+        <v>307.565517715103</v>
       </c>
       <c r="S9">
-        <v>0.03981828623609569</v>
+        <v>0.02356015649181228</v>
       </c>
       <c r="T9">
-        <v>0.03981828623609569</v>
+        <v>0.02935087835700878</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>19.2878504729269</v>
+        <v>7.996669666666667</v>
       </c>
       <c r="H10">
-        <v>19.2878504729269</v>
+        <v>23.990009</v>
       </c>
       <c r="I10">
-        <v>0.4278380933544037</v>
+        <v>0.1685629973331152</v>
       </c>
       <c r="J10">
-        <v>0.4278380933544037</v>
+        <v>0.1694733043653008</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.54175810382474</v>
+        <v>5.239195333333333</v>
       </c>
       <c r="N10">
-        <v>3.54175810382474</v>
+        <v>15.717586</v>
       </c>
       <c r="O10">
-        <v>0.1895601788307117</v>
+        <v>0.1713541150096253</v>
       </c>
       <c r="P10">
-        <v>0.1895601788307117</v>
+        <v>0.2123236726894799</v>
       </c>
       <c r="Q10">
-        <v>68.31290071784869</v>
+        <v>41.89611439980822</v>
       </c>
       <c r="R10">
-        <v>68.31290071784869</v>
+        <v>377.065029598274</v>
       </c>
       <c r="S10">
-        <v>0.08110106548685148</v>
+        <v>0.02888396323138578</v>
       </c>
       <c r="T10">
-        <v>0.08110106548685148</v>
+        <v>0.03598319440566273</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>19.2878504729269</v>
+        <v>7.996669666666667</v>
       </c>
       <c r="H11">
-        <v>19.2878504729269</v>
+        <v>23.990009</v>
       </c>
       <c r="I11">
-        <v>0.4278380933544037</v>
+        <v>0.1685629973331152</v>
       </c>
       <c r="J11">
-        <v>0.4278380933544037</v>
+        <v>0.1694733043653008</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>11.7087957868524</v>
+        <v>17.6992215</v>
       </c>
       <c r="N11">
-        <v>11.7087957868524</v>
+        <v>35.398443</v>
       </c>
       <c r="O11">
-        <v>0.6266722227164995</v>
+        <v>0.5788740910643339</v>
       </c>
       <c r="P11">
-        <v>0.6266722227164995</v>
+        <v>0.4781858629721645</v>
       </c>
       <c r="Q11">
-        <v>225.8375023548456</v>
+        <v>141.5348276926645</v>
       </c>
       <c r="R11">
-        <v>225.8375023548456</v>
+        <v>849.208966155987</v>
       </c>
       <c r="S11">
-        <v>0.2681142489251934</v>
+        <v>0.09757675186828678</v>
       </c>
       <c r="T11">
-        <v>0.2681142489251934</v>
+        <v>0.08103973829866565</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>17.9867924768969</v>
+        <v>20.41511966666667</v>
       </c>
       <c r="H12">
-        <v>17.9867924768969</v>
+        <v>61.24535899999999</v>
       </c>
       <c r="I12">
-        <v>0.3989783625541106</v>
+        <v>0.4303333644344477</v>
       </c>
       <c r="J12">
-        <v>0.3989783625541106</v>
+        <v>0.43265733525857</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.0066635674006</v>
+        <v>2.500998666666666</v>
       </c>
       <c r="N12">
-        <v>1.0066635674006</v>
+        <v>7.502996</v>
       </c>
       <c r="O12">
-        <v>0.05387813629980828</v>
+        <v>0.08179813614512804</v>
       </c>
       <c r="P12">
-        <v>0.05387813629980828</v>
+        <v>0.1013554923061644</v>
       </c>
       <c r="Q12">
-        <v>18.1066486808873</v>
+        <v>51.05818706617377</v>
       </c>
       <c r="R12">
-        <v>18.1066486808873</v>
+        <v>459.5236835955639</v>
       </c>
       <c r="S12">
-        <v>0.0214962105983647</v>
+        <v>0.03520046713179995</v>
       </c>
       <c r="T12">
-        <v>0.0214962105983647</v>
+        <v>0.04385219721500557</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>17.9867924768969</v>
+        <v>20.41511966666667</v>
       </c>
       <c r="H13">
-        <v>17.9867924768969</v>
+        <v>61.24535899999999</v>
       </c>
       <c r="I13">
-        <v>0.3989783625541106</v>
+        <v>0.4303333644344477</v>
       </c>
       <c r="J13">
-        <v>0.3989783625541106</v>
+        <v>0.43265733525857</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.68796431057096</v>
+        <v>0.8623146666666667</v>
       </c>
       <c r="N13">
-        <v>0.68796431057096</v>
+        <v>2.586944</v>
       </c>
       <c r="O13">
-        <v>0.0368208765020254</v>
+        <v>0.02820302683245761</v>
       </c>
       <c r="P13">
-        <v>0.0368208765020254</v>
+        <v>0.03494617119461054</v>
       </c>
       <c r="Q13">
-        <v>12.3742712857513</v>
+        <v>17.60425711032178</v>
       </c>
       <c r="R13">
-        <v>12.3742712857513</v>
+        <v>158.438313992896</v>
       </c>
       <c r="S13">
-        <v>0.01469073301458522</v>
+        <v>0.01213670342404649</v>
       </c>
       <c r="T13">
-        <v>0.01469073301458522</v>
+        <v>0.01511971730654999</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>17.9867924768969</v>
+        <v>20.41511966666667</v>
       </c>
       <c r="H14">
-        <v>17.9867924768969</v>
+        <v>61.24535899999999</v>
       </c>
       <c r="I14">
-        <v>0.3989783625541106</v>
+        <v>0.4303333644344477</v>
       </c>
       <c r="J14">
-        <v>0.3989783625541106</v>
+        <v>0.43265733525857</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.7389011736223</v>
+        <v>4.273522333333333</v>
       </c>
       <c r="N14">
-        <v>1.7389011736223</v>
+        <v>12.820567</v>
       </c>
       <c r="O14">
-        <v>0.09306858565095522</v>
+        <v>0.1397706309484552</v>
       </c>
       <c r="P14">
-        <v>0.09306858565095522</v>
+        <v>0.1731888008375808</v>
       </c>
       <c r="Q14">
-        <v>31.27725454777677</v>
+        <v>87.24446983317254</v>
       </c>
       <c r="R14">
-        <v>31.27725454777677</v>
+        <v>785.200228498553</v>
       </c>
       <c r="S14">
-        <v>0.03713235190824511</v>
+        <v>0.06014796586517428</v>
       </c>
       <c r="T14">
-        <v>0.03713235190824511</v>
+        <v>0.07493140506701489</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>17.9867924768969</v>
+        <v>20.41511966666667</v>
       </c>
       <c r="H15">
-        <v>17.9867924768969</v>
+        <v>61.24535899999999</v>
       </c>
       <c r="I15">
-        <v>0.3989783625541106</v>
+        <v>0.4303333644344477</v>
       </c>
       <c r="J15">
-        <v>0.3989783625541106</v>
+        <v>0.43265733525857</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.54175810382474</v>
+        <v>5.239195333333333</v>
       </c>
       <c r="N15">
-        <v>3.54175810382474</v>
+        <v>15.717586</v>
       </c>
       <c r="O15">
-        <v>0.1895601788307117</v>
+        <v>0.1713541150096253</v>
       </c>
       <c r="P15">
-        <v>0.1895601788307117</v>
+        <v>0.2123236726894799</v>
       </c>
       <c r="Q15">
-        <v>63.70486801686346</v>
+        <v>106.9587996870415</v>
       </c>
       <c r="R15">
-        <v>63.70486801686346</v>
+        <v>962.6291971833738</v>
       </c>
       <c r="S15">
-        <v>0.07563040975534173</v>
+        <v>0.07373939282177935</v>
       </c>
       <c r="T15">
-        <v>0.07563040975534173</v>
+        <v>0.09186339443814319</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>17.9867924768969</v>
+        <v>20.41511966666667</v>
       </c>
       <c r="H16">
-        <v>17.9867924768969</v>
+        <v>61.24535899999999</v>
       </c>
       <c r="I16">
-        <v>0.3989783625541106</v>
+        <v>0.4303333644344477</v>
       </c>
       <c r="J16">
-        <v>0.3989783625541106</v>
+        <v>0.43265733525857</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>11.7087957868524</v>
+        <v>17.6992215</v>
       </c>
       <c r="N16">
-        <v>11.7087957868524</v>
+        <v>35.398443</v>
       </c>
       <c r="O16">
-        <v>0.6266722227164995</v>
+        <v>0.5788740910643339</v>
       </c>
       <c r="P16">
-        <v>0.6266722227164995</v>
+        <v>0.4781858629721645</v>
       </c>
       <c r="Q16">
-        <v>210.6036799724789</v>
+        <v>361.3317249293395</v>
       </c>
       <c r="R16">
-        <v>210.6036799724789</v>
+        <v>2167.990349576037</v>
       </c>
       <c r="S16">
-        <v>0.2500286572775739</v>
+        <v>0.2491088351916476</v>
       </c>
       <c r="T16">
-        <v>0.2500286572775739</v>
+        <v>0.2068906212318564</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,61 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.45230063762502</v>
+        <v>18.18960266666667</v>
       </c>
       <c r="H17">
-        <v>0.45230063762502</v>
+        <v>54.568808</v>
       </c>
       <c r="I17">
-        <v>0.01003281535680137</v>
+        <v>0.3834213583402689</v>
       </c>
       <c r="J17">
-        <v>0.01003281535680137</v>
+        <v>0.3854919857277111</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.0066635674006</v>
+        <v>2.500998666666666</v>
       </c>
       <c r="N17">
-        <v>1.0066635674006</v>
+        <v>7.502996</v>
       </c>
       <c r="O17">
-        <v>0.05387813629980828</v>
+        <v>0.08179813614512804</v>
       </c>
       <c r="P17">
-        <v>0.05387813629980828</v>
+        <v>0.1013554923061644</v>
       </c>
       <c r="Q17">
-        <v>0.4553145734091686</v>
+        <v>45.49217201652978</v>
       </c>
       <c r="R17">
-        <v>0.4553145734091686</v>
+        <v>409.429548148768</v>
       </c>
       <c r="S17">
-        <v>0.000540549393264554</v>
+        <v>0.03136315247046724</v>
       </c>
       <c r="T17">
-        <v>0.000540549393264554</v>
+        <v>0.03907172999351305</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,61 +1517,61 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.45230063762502</v>
+        <v>18.18960266666667</v>
       </c>
       <c r="H18">
-        <v>0.45230063762502</v>
+        <v>54.568808</v>
       </c>
       <c r="I18">
-        <v>0.01003281535680137</v>
+        <v>0.3834213583402689</v>
       </c>
       <c r="J18">
-        <v>0.01003281535680137</v>
+        <v>0.3854919857277111</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.68796431057096</v>
+        <v>0.8623146666666667</v>
       </c>
       <c r="N18">
-        <v>0.68796431057096</v>
+        <v>2.586944</v>
       </c>
       <c r="O18">
-        <v>0.0368208765020254</v>
+        <v>0.02820302683245761</v>
       </c>
       <c r="P18">
-        <v>0.0368208765020254</v>
+        <v>0.03494617119461054</v>
       </c>
       <c r="Q18">
-        <v>0.3111666963345024</v>
+        <v>15.68516116030578</v>
       </c>
       <c r="R18">
-        <v>0.3111666963345024</v>
+        <v>141.166450442752</v>
       </c>
       <c r="S18">
-        <v>0.0003694170552204073</v>
+        <v>0.01081364285740795</v>
       </c>
       <c r="T18">
-        <v>0.0003694170552204073</v>
+        <v>0.01347146892739096</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,61 +1579,61 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.45230063762502</v>
+        <v>18.18960266666667</v>
       </c>
       <c r="H19">
-        <v>0.45230063762502</v>
+        <v>54.568808</v>
       </c>
       <c r="I19">
-        <v>0.01003281535680137</v>
+        <v>0.3834213583402689</v>
       </c>
       <c r="J19">
-        <v>0.01003281535680137</v>
+        <v>0.3854919857277111</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.7389011736223</v>
+        <v>4.273522333333333</v>
       </c>
       <c r="N19">
-        <v>1.7389011736223</v>
+        <v>12.820567</v>
       </c>
       <c r="O19">
-        <v>0.09306858565095522</v>
+        <v>0.1397706309484552</v>
       </c>
       <c r="P19">
-        <v>0.09306858565095522</v>
+        <v>0.1731888008375808</v>
       </c>
       <c r="Q19">
-        <v>0.7865061095962619</v>
+        <v>77.73367323045956</v>
       </c>
       <c r="R19">
-        <v>0.7865061095962619</v>
+        <v>699.6030590741361</v>
       </c>
       <c r="S19">
-        <v>0.0009337399353546874</v>
+        <v>0.05359104517433313</v>
       </c>
       <c r="T19">
-        <v>0.0009337399353546874</v>
+        <v>0.06676289474068008</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1641,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.45230063762502</v>
+        <v>18.18960266666667</v>
       </c>
       <c r="H20">
-        <v>0.45230063762502</v>
+        <v>54.568808</v>
       </c>
       <c r="I20">
-        <v>0.01003281535680137</v>
+        <v>0.3834213583402689</v>
       </c>
       <c r="J20">
-        <v>0.01003281535680137</v>
+        <v>0.3854919857277111</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.54175810382474</v>
+        <v>5.239195333333333</v>
       </c>
       <c r="N20">
-        <v>3.54175810382474</v>
+        <v>15.717586</v>
       </c>
       <c r="O20">
-        <v>0.1895601788307117</v>
+        <v>0.1713541150096253</v>
       </c>
       <c r="P20">
-        <v>0.1895601788307117</v>
+        <v>0.2123236726894799</v>
       </c>
       <c r="Q20">
-        <v>1.601939448673512</v>
+        <v>95.29888140638757</v>
       </c>
       <c r="R20">
-        <v>1.601939448673512</v>
+        <v>857.689932657488</v>
       </c>
       <c r="S20">
-        <v>0.001901822273210779</v>
+        <v>0.06570082753418519</v>
       </c>
       <c r="T20">
-        <v>0.001901822273210779</v>
+        <v>0.08184907420206819</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>18.18960266666667</v>
+      </c>
+      <c r="H21">
+        <v>54.568808</v>
+      </c>
+      <c r="I21">
+        <v>0.3834213583402689</v>
+      </c>
+      <c r="J21">
+        <v>0.3854919857277111</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>17.6992215</v>
+      </c>
+      <c r="N21">
+        <v>35.398443</v>
+      </c>
+      <c r="O21">
+        <v>0.5788740910643339</v>
+      </c>
+      <c r="P21">
+        <v>0.4781858629721645</v>
+      </c>
+      <c r="Q21">
+        <v>321.941806594324</v>
+      </c>
+      <c r="R21">
+        <v>1931.650839565944</v>
+      </c>
+      <c r="S21">
+        <v>0.2219526903038754</v>
+      </c>
+      <c r="T21">
+        <v>0.1843368178640589</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.7644599999999999</v>
+      </c>
+      <c r="H22">
+        <v>1.52892</v>
+      </c>
+      <c r="I22">
+        <v>0.01611416681101785</v>
+      </c>
+      <c r="J22">
+        <v>0.01080079313476688</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>2.500998666666666</v>
+      </c>
+      <c r="N22">
+        <v>7.502996</v>
+      </c>
+      <c r="O22">
+        <v>0.08179813614512804</v>
+      </c>
+      <c r="P22">
+        <v>0.1013554923061644</v>
+      </c>
+      <c r="Q22">
+        <v>1.91191344072</v>
+      </c>
+      <c r="R22">
+        <v>11.47148064432</v>
+      </c>
+      <c r="S22">
+        <v>0.001318108810672942</v>
+      </c>
+      <c r="T22">
+        <v>0.001094719705471337</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.7644599999999999</v>
+      </c>
+      <c r="H23">
+        <v>1.52892</v>
+      </c>
+      <c r="I23">
+        <v>0.01611416681101785</v>
+      </c>
+      <c r="J23">
+        <v>0.01080079313476688</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.8623146666666667</v>
+      </c>
+      <c r="N23">
+        <v>2.586944</v>
+      </c>
+      <c r="O23">
+        <v>0.02820302683245761</v>
+      </c>
+      <c r="P23">
+        <v>0.03494617119461054</v>
+      </c>
+      <c r="Q23">
+        <v>0.65920507008</v>
+      </c>
+      <c r="R23">
+        <v>3.95523042048</v>
+      </c>
+      <c r="S23">
+        <v>0.0004544682789538344</v>
+      </c>
+      <c r="T23">
+        <v>0.0003774463659251376</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.7644599999999999</v>
+      </c>
+      <c r="H24">
+        <v>1.52892</v>
+      </c>
+      <c r="I24">
+        <v>0.01611416681101785</v>
+      </c>
+      <c r="J24">
+        <v>0.01080079313476688</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>4.273522333333333</v>
+      </c>
+      <c r="N24">
+        <v>12.820567</v>
+      </c>
+      <c r="O24">
+        <v>0.1397706309484552</v>
+      </c>
+      <c r="P24">
+        <v>0.1731888008375808</v>
+      </c>
+      <c r="Q24">
+        <v>3.26693688294</v>
+      </c>
+      <c r="R24">
+        <v>19.60162129764</v>
+      </c>
+      <c r="S24">
+        <v>0.002252287262384622</v>
+      </c>
+      <c r="T24">
+        <v>0.00187057641110505</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0.45230063762502</v>
-      </c>
-      <c r="H21">
-        <v>0.45230063762502</v>
-      </c>
-      <c r="I21">
-        <v>0.01003281535680137</v>
-      </c>
-      <c r="J21">
-        <v>0.01003281535680137</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>11.7087957868524</v>
-      </c>
-      <c r="N21">
-        <v>11.7087957868524</v>
-      </c>
-      <c r="O21">
-        <v>0.6266722227164995</v>
-      </c>
-      <c r="P21">
-        <v>0.6266722227164995</v>
-      </c>
-      <c r="Q21">
-        <v>5.295895800214488</v>
-      </c>
-      <c r="R21">
-        <v>5.295895800214488</v>
-      </c>
-      <c r="S21">
-        <v>0.006287286699750947</v>
-      </c>
-      <c r="T21">
-        <v>0.006287286699750947</v>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.7644599999999999</v>
+      </c>
+      <c r="H25">
+        <v>1.52892</v>
+      </c>
+      <c r="I25">
+        <v>0.01611416681101785</v>
+      </c>
+      <c r="J25">
+        <v>0.01080079313476688</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>5.239195333333333</v>
+      </c>
+      <c r="N25">
+        <v>15.717586</v>
+      </c>
+      <c r="O25">
+        <v>0.1713541150096253</v>
+      </c>
+      <c r="P25">
+        <v>0.2123236726894799</v>
+      </c>
+      <c r="Q25">
+        <v>4.005155264519999</v>
+      </c>
+      <c r="R25">
+        <v>24.03093158711999</v>
+      </c>
+      <c r="S25">
+        <v>0.00276122879301944</v>
+      </c>
+      <c r="T25">
+        <v>0.002293264066333024</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.7644599999999999</v>
+      </c>
+      <c r="H26">
+        <v>1.52892</v>
+      </c>
+      <c r="I26">
+        <v>0.01611416681101785</v>
+      </c>
+      <c r="J26">
+        <v>0.01080079313476688</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>17.6992215</v>
+      </c>
+      <c r="N26">
+        <v>35.398443</v>
+      </c>
+      <c r="O26">
+        <v>0.5788740910643339</v>
+      </c>
+      <c r="P26">
+        <v>0.4781858629721645</v>
+      </c>
+      <c r="Q26">
+        <v>13.53034686789</v>
+      </c>
+      <c r="R26">
+        <v>54.12138747155999</v>
+      </c>
+      <c r="S26">
+        <v>0.009328073665987015</v>
+      </c>
+      <c r="T26">
+        <v>0.00516478658593233</v>
       </c>
     </row>
   </sheetData>
